--- a/Maga3Sem/Интеллектуальный анализ данных/Задание 1/aglKl.xlsx
+++ b/Maga3Sem/Интеллектуальный анализ данных/Задание 1/aglKl.xlsx
@@ -1,22 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitaly.gusev\Desktop\Универ\Bachelor_course\Maga3Sem\Интеллектуальный анализ данных\Задание 1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD92DA8A-05D0-45BF-B40E-B4F040F26384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>t уровень дерева</t>
   </si>
@@ -542,12 +559,44 @@
   </si>
   <si>
     <t>Видим, что в этой матрице минимальное число это 2. И так случилось, что эти числа на зеленых клетках. Значит опять новая точка будет добавляться в существующий кластер.</t>
+  </si>
+  <si>
+    <r>
+      <t>K3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>56</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>K3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>56</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -582,7 +631,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -610,6 +659,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,7 +761,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -748,6 +803,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -757,6 +817,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -805,7 +868,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -838,9 +901,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -873,6 +953,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -1048,28 +1145,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.26953125" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" customWidth="1"/>
+    <col min="3" max="3" width="29.81640625" customWidth="1"/>
+    <col min="4" max="4" width="26.453125" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1089,7 +1186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1103,7 +1200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1114,44 +1211,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AI61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A3:AI80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J77" sqref="J77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="3.85546875" customWidth="1"/>
-    <col min="3" max="3" width="3.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" customWidth="1"/>
-    <col min="7" max="7" width="3.140625" customWidth="1"/>
-    <col min="8" max="9" width="3.42578125" customWidth="1"/>
-    <col min="10" max="10" width="3.28515625" customWidth="1"/>
-    <col min="11" max="11" width="3.7109375" customWidth="1"/>
-    <col min="12" max="12" width="3.28515625" customWidth="1"/>
-    <col min="13" max="14" width="3.140625" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" customWidth="1"/>
-    <col min="18" max="18" width="3.28515625" customWidth="1"/>
-    <col min="19" max="19" width="3.7109375" customWidth="1"/>
-    <col min="20" max="21" width="3.28515625" customWidth="1"/>
-    <col min="22" max="22" width="3.7109375" customWidth="1"/>
-    <col min="23" max="24" width="3.5703125" customWidth="1"/>
-    <col min="25" max="25" width="3.28515625" customWidth="1"/>
-    <col min="27" max="27" width="4.7109375" customWidth="1"/>
-    <col min="28" max="28" width="11.7109375" customWidth="1"/>
-    <col min="29" max="31" width="3.85546875" customWidth="1"/>
-    <col min="32" max="32" width="3.140625" customWidth="1"/>
-    <col min="33" max="33" width="3.5703125" customWidth="1"/>
-    <col min="34" max="34" width="3.140625" customWidth="1"/>
-    <col min="35" max="35" width="3.28515625" customWidth="1"/>
-    <col min="36" max="36" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="3.81640625" customWidth="1"/>
+    <col min="3" max="3" width="3.54296875" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" customWidth="1"/>
+    <col min="6" max="6" width="4.26953125" customWidth="1"/>
+    <col min="7" max="7" width="3.1796875" customWidth="1"/>
+    <col min="8" max="9" width="3.453125" customWidth="1"/>
+    <col min="10" max="10" width="4.90625" customWidth="1"/>
+    <col min="11" max="11" width="3.7265625" customWidth="1"/>
+    <col min="12" max="12" width="3.26953125" customWidth="1"/>
+    <col min="13" max="14" width="3.1796875" customWidth="1"/>
+    <col min="17" max="17" width="4.453125" customWidth="1"/>
+    <col min="18" max="18" width="3.26953125" customWidth="1"/>
+    <col min="19" max="19" width="3.7265625" customWidth="1"/>
+    <col min="20" max="21" width="3.26953125" customWidth="1"/>
+    <col min="22" max="22" width="3.7265625" customWidth="1"/>
+    <col min="23" max="24" width="3.54296875" customWidth="1"/>
+    <col min="25" max="25" width="3.26953125" customWidth="1"/>
+    <col min="27" max="27" width="4.7265625" customWidth="1"/>
+    <col min="28" max="28" width="11.7265625" customWidth="1"/>
+    <col min="29" max="31" width="3.81640625" customWidth="1"/>
+    <col min="32" max="32" width="3.1796875" customWidth="1"/>
+    <col min="33" max="33" width="3.54296875" customWidth="1"/>
+    <col min="34" max="34" width="3.1796875" customWidth="1"/>
+    <col min="35" max="35" width="3.26953125" customWidth="1"/>
+    <col min="36" max="36" width="3.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1159,7 +1256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B4" s="7">
         <v>2</v>
       </c>
@@ -1183,7 +1280,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -1207,7 +1304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B6" s="3">
         <v>4</v>
       </c>
@@ -1232,7 +1329,7 @@
       <c r="L6" s="15"/>
       <c r="N6" s="5"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -1261,7 +1358,7 @@
       <c r="L7" s="15"/>
       <c r="N7" s="5"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1296,15 +1393,21 @@
       <c r="K8" s="13">
         <v>0</v>
       </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="19"/>
+      <c r="L8" s="15">
+        <v>1</v>
+      </c>
+      <c r="M8" s="13">
+        <v>4</v>
+      </c>
+      <c r="N8" s="19">
+        <v>3</v>
+      </c>
       <c r="P8" s="11" t="s">
         <v>25</v>
       </c>
       <c r="Q8" s="11"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B9" s="3">
         <v>5</v>
       </c>
@@ -1337,10 +1440,14 @@
       <c r="L9" s="15">
         <v>0</v>
       </c>
-      <c r="M9" s="15"/>
-      <c r="N9" s="24"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M9" s="15">
+        <v>5</v>
+      </c>
+      <c r="N9" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B10" s="3">
         <v>7</v>
       </c>
@@ -1379,7 +1486,7 @@
       </c>
       <c r="N10" s="5"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B11" s="4">
         <v>7</v>
       </c>
@@ -1421,7 +1528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="G12" s="18">
         <v>1</v>
       </c>
@@ -1447,7 +1554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -1463,22 +1570,22 @@
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1512,7 +1619,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
       <c r="G20" s="18">
         <v>1</v>
       </c>
@@ -1577,7 +1684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
       <c r="F21" s="20">
         <v>1</v>
       </c>
@@ -1605,7 +1712,7 @@
       <c r="AH21" s="8"/>
       <c r="AI21" s="9"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
       <c r="F22" s="20">
         <v>2</v>
       </c>
@@ -1632,7 +1739,7 @@
       <c r="AC22" s="3"/>
       <c r="AI22" s="5"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
       <c r="F23" s="20">
         <v>3</v>
       </c>
@@ -1663,7 +1770,7 @@
       <c r="AC23" s="3"/>
       <c r="AI23" s="5"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
       <c r="F24" s="20">
         <v>4</v>
       </c>
@@ -1701,7 +1808,7 @@
       <c r="AC24" s="3"/>
       <c r="AI24" s="5"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
       <c r="E25" s="11" t="s">
         <v>20</v>
       </c>
@@ -1783,7 +1890,7 @@
       <c r="AH25" s="13"/>
       <c r="AI25" s="19"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
       <c r="F26" s="20">
         <v>7</v>
       </c>
@@ -1828,7 +1935,7 @@
       <c r="AC26" s="3"/>
       <c r="AI26" s="5"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
       <c r="F27" s="20">
         <v>8</v>
       </c>
@@ -1881,22 +1988,22 @@
       <c r="AH27" s="2"/>
       <c r="AI27" s="6"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
       <c r="C29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
       <c r="C30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -1904,22 +2011,22 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="C33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="C34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="C35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="C36" s="27" t="s">
         <v>39</v>
       </c>
@@ -1947,7 +2054,7 @@
       <c r="Y36" s="27"/>
       <c r="Z36" s="27"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G37" s="18">
         <v>1</v>
       </c>
@@ -1995,7 +2102,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F38" s="20">
         <v>1</v>
       </c>
@@ -2015,7 +2122,7 @@
       <c r="V38" s="25"/>
       <c r="W38" s="25"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F39" s="20">
         <v>2</v>
       </c>
@@ -2043,7 +2150,7 @@
       <c r="V39" s="25"/>
       <c r="W39" s="25"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F40" s="20">
         <v>3</v>
       </c>
@@ -2080,7 +2187,7 @@
       <c r="X40" s="25"/>
       <c r="Y40" s="25"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F41" s="20">
         <v>4</v>
       </c>
@@ -2111,7 +2218,7 @@
       <c r="V41" s="25"/>
       <c r="W41" s="25"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="E42" s="11" t="s">
         <v>33</v>
       </c>
@@ -2161,7 +2268,7 @@
       <c r="X42" s="25"/>
       <c r="Y42" s="25"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F43" s="26"/>
       <c r="G43" s="15">
         <f>G40</f>
@@ -2203,7 +2310,7 @@
       <c r="X43" s="25"/>
       <c r="Y43" s="25"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F44" s="20">
         <v>7</v>
       </c>
@@ -2244,7 +2351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="F45" s="20">
         <v>8</v>
       </c>
@@ -2289,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>41</v>
       </c>
@@ -2297,12 +2404,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.35">
       <c r="G53" s="18">
         <v>1</v>
       </c>
@@ -2326,27 +2433,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.35">
       <c r="F54" s="20">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.35">
       <c r="F55" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.35">
       <c r="F56" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.35">
       <c r="F57" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.35">
       <c r="E58" s="11" t="s">
         <v>43</v>
       </c>
@@ -2354,17 +2461,334 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.35">
       <c r="F59" s="26"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.35">
       <c r="F60" s="20">
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.35">
       <c r="F61" s="20">
         <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="G64" s="18">
+        <v>1</v>
+      </c>
+      <c r="H64" s="18">
+        <v>2</v>
+      </c>
+      <c r="I64" s="18">
+        <v>3</v>
+      </c>
+      <c r="J64" s="18">
+        <v>4</v>
+      </c>
+      <c r="K64" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L64" s="18">
+        <v>7</v>
+      </c>
+      <c r="M64" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F65" s="20">
+        <v>1</v>
+      </c>
+      <c r="G65" s="7">
+        <v>0</v>
+      </c>
+      <c r="H65" s="8"/>
+      <c r="I65" s="31">
+        <v>4</v>
+      </c>
+      <c r="J65" s="8"/>
+      <c r="K65" s="12">
+        <v>6</v>
+      </c>
+      <c r="L65" s="8"/>
+      <c r="M65" s="9"/>
+    </row>
+    <row r="66" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F66" s="20">
+        <v>2</v>
+      </c>
+      <c r="G66" s="3">
+        <v>4</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66" s="25">
+        <v>4</v>
+      </c>
+      <c r="K66" s="13">
+        <v>3</v>
+      </c>
+      <c r="M66" s="5"/>
+    </row>
+    <row r="67" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F67" s="20">
+        <v>3</v>
+      </c>
+      <c r="G67" s="29">
+        <v>4</v>
+      </c>
+      <c r="H67" s="25">
+        <v>4</v>
+      </c>
+      <c r="I67" s="25">
+        <v>0</v>
+      </c>
+      <c r="J67" s="25">
+        <v>3</v>
+      </c>
+      <c r="K67" s="25">
+        <v>2</v>
+      </c>
+      <c r="L67" s="25">
+        <v>4</v>
+      </c>
+      <c r="M67" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F68" s="20">
+        <v>4</v>
+      </c>
+      <c r="G68" s="3">
+        <v>7</v>
+      </c>
+      <c r="H68">
+        <v>3</v>
+      </c>
+      <c r="I68" s="25">
+        <v>3</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68" s="13">
+        <v>2</v>
+      </c>
+      <c r="M68" s="5"/>
+    </row>
+    <row r="69" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F69" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G69" s="16">
+        <v>6</v>
+      </c>
+      <c r="H69" s="13">
+        <v>3</v>
+      </c>
+      <c r="I69" s="33">
+        <v>2</v>
+      </c>
+      <c r="J69" s="13">
+        <v>2</v>
+      </c>
+      <c r="K69" s="13">
+        <v>0</v>
+      </c>
+      <c r="L69" s="13">
+        <v>4</v>
+      </c>
+      <c r="M69" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F70" s="20">
+        <v>7</v>
+      </c>
+      <c r="G70" s="3">
+        <v>6</v>
+      </c>
+      <c r="H70">
+        <v>8</v>
+      </c>
+      <c r="I70" s="25">
+        <v>4</v>
+      </c>
+      <c r="J70">
+        <v>7</v>
+      </c>
+      <c r="K70" s="13">
+        <v>4</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70" s="5"/>
+    </row>
+    <row r="71" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F71" s="20">
+        <v>8</v>
+      </c>
+      <c r="G71" s="4">
+        <v>9</v>
+      </c>
+      <c r="H71" s="2">
+        <v>5</v>
+      </c>
+      <c r="I71" s="32">
+        <v>5</v>
+      </c>
+      <c r="J71" s="2">
+        <v>4</v>
+      </c>
+      <c r="K71" s="22">
+        <v>2</v>
+      </c>
+      <c r="L71" s="2">
+        <v>3</v>
+      </c>
+      <c r="M71" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="G74" s="18">
+        <v>1</v>
+      </c>
+      <c r="H74" s="18">
+        <v>2</v>
+      </c>
+      <c r="I74" s="18">
+        <v>4</v>
+      </c>
+      <c r="J74" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K74" s="18">
+        <v>7</v>
+      </c>
+      <c r="L74" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F75" s="20">
+        <v>1</v>
+      </c>
+      <c r="G75" s="7">
+        <v>0</v>
+      </c>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="12">
+        <v>4</v>
+      </c>
+      <c r="K75" s="8"/>
+      <c r="L75" s="9"/>
+    </row>
+    <row r="76" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F76" s="20">
+        <v>2</v>
+      </c>
+      <c r="G76" s="3">
+        <v>4</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="J76" s="13">
+        <v>3</v>
+      </c>
+      <c r="L76" s="5"/>
+    </row>
+    <row r="77" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F77" s="20">
+        <v>4</v>
+      </c>
+      <c r="G77" s="3">
+        <v>7</v>
+      </c>
+      <c r="H77">
+        <v>3</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77" s="13">
+        <v>2</v>
+      </c>
+      <c r="L77" s="5"/>
+    </row>
+    <row r="78" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F78" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="G78" s="16">
+        <v>4</v>
+      </c>
+      <c r="H78" s="13">
+        <v>3</v>
+      </c>
+      <c r="I78" s="13">
+        <v>2</v>
+      </c>
+      <c r="J78" s="13">
+        <v>0</v>
+      </c>
+      <c r="K78" s="13">
+        <v>4</v>
+      </c>
+      <c r="L78" s="19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F79" s="20">
+        <v>7</v>
+      </c>
+      <c r="G79" s="3">
+        <v>6</v>
+      </c>
+      <c r="H79">
+        <v>8</v>
+      </c>
+      <c r="I79">
+        <v>7</v>
+      </c>
+      <c r="J79" s="13">
+        <v>4</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79" s="5"/>
+    </row>
+    <row r="80" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F80" s="20">
+        <v>8</v>
+      </c>
+      <c r="G80" s="4">
+        <v>9</v>
+      </c>
+      <c r="H80" s="2">
+        <v>5</v>
+      </c>
+      <c r="I80" s="2">
+        <v>4</v>
+      </c>
+      <c r="J80" s="22">
+        <v>2</v>
+      </c>
+      <c r="K80" s="2">
+        <v>3</v>
+      </c>
+      <c r="L80" s="6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2382,12 +2806,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Maga3Sem/Интеллектуальный анализ данных/Задание 1/aglKl.xlsx
+++ b/Maga3Sem/Интеллектуальный анализ данных/Задание 1/aglKl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitaly.gusev\Desktop\Универ\Bachelor_course\Maga3Sem\Интеллектуальный анализ данных\Задание 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD92DA8A-05D0-45BF-B40E-B4F040F26384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192E2418-1BEB-46BA-98CB-815A17A03B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -794,6 +794,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -803,11 +808,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1214,8 +1214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:AI80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J77" sqref="J77"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1264,7 +1264,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" s="3">
         <f>ABS(B5-$B$4)+ABS(C5-$C$4)</f>
@@ -1312,7 +1312,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" s="3">
         <f>ABS(B6-$B$4)+ABS(C6-$C$4)</f>
@@ -1337,7 +1337,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" ref="G7:G11" si="0">ABS(B7-$B$4)+ABS(C7-$C$4)</f>
@@ -1371,8 +1371,8 @@
       <c r="E8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="21">
-        <v>5</v>
+      <c r="F8" s="20">
+        <v>4</v>
       </c>
       <c r="G8" s="16">
         <f t="shared" si="0"/>
@@ -1415,7 +1415,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G9" s="17">
         <f t="shared" si="0"/>
@@ -1455,7 +1455,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="0"/>
@@ -1494,7 +1494,7 @@
         <v>5</v>
       </c>
       <c r="F11" s="20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="0"/>
@@ -1530,28 +1530,28 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="G12" s="18">
+        <v>0</v>
+      </c>
+      <c r="H12" s="18">
         <v>1</v>
       </c>
-      <c r="H12" s="18">
-        <v>2</v>
-      </c>
       <c r="I12" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12" s="18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K12" s="18">
+        <v>4</v>
+      </c>
+      <c r="L12" s="18">
         <v>5</v>
       </c>
-      <c r="L12" s="18">
+      <c r="M12" s="18">
         <v>6</v>
       </c>
-      <c r="M12" s="18">
-        <v>7</v>
-      </c>
       <c r="N12" s="18">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
@@ -1589,32 +1589,32 @@
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27"/>
-      <c r="U19" s="27"/>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="27"/>
-      <c r="Y19" s="27"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="32"/>
       <c r="AB19" t="s">
         <v>28</v>
       </c>
@@ -2027,32 +2027,32 @@
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="27"/>
-      <c r="S36" s="27"/>
-      <c r="T36" s="27"/>
-      <c r="U36" s="27"/>
-      <c r="V36" s="27"/>
-      <c r="W36" s="27"/>
-      <c r="X36" s="27"/>
-      <c r="Y36" s="27"/>
-      <c r="Z36" s="27"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="32"/>
+      <c r="W36" s="32"/>
+      <c r="X36" s="32"/>
+      <c r="Y36" s="32"/>
+      <c r="Z36" s="32"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G37" s="18">
@@ -2067,10 +2067,10 @@
       <c r="J37" s="18">
         <v>4</v>
       </c>
-      <c r="K37" s="28" t="s">
+      <c r="K37" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="L37" s="28"/>
+      <c r="L37" s="33"/>
       <c r="M37" s="18">
         <v>7</v>
       </c>
@@ -2222,7 +2222,7 @@
       <c r="E42" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="F42" s="26" t="s">
+      <c r="F42" s="31" t="s">
         <v>32</v>
       </c>
       <c r="G42" s="15">
@@ -2269,7 +2269,7 @@
       <c r="Y42" s="25"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="F43" s="26"/>
+      <c r="F43" s="31"/>
       <c r="G43" s="15">
         <f>G40</f>
         <v>4</v>
@@ -2422,10 +2422,10 @@
       <c r="J53" s="18">
         <v>4</v>
       </c>
-      <c r="K53" s="28" t="s">
+      <c r="K53" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="L53" s="28"/>
+      <c r="L53" s="33"/>
       <c r="M53" s="18">
         <v>7</v>
       </c>
@@ -2457,12 +2457,12 @@
       <c r="E58" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="F58" s="26" t="s">
+      <c r="F58" s="31" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="F59" s="26"/>
+      <c r="F59" s="31"/>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.35">
       <c r="F60" s="20">
@@ -2505,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="H65" s="8"/>
-      <c r="I65" s="31">
+      <c r="I65" s="28">
         <v>4</v>
       </c>
       <c r="J65" s="8"/>
@@ -2537,7 +2537,7 @@
       <c r="F67" s="20">
         <v>3</v>
       </c>
-      <c r="G67" s="29">
+      <c r="G67" s="26">
         <v>4</v>
       </c>
       <c r="H67" s="25">
@@ -2555,7 +2555,7 @@
       <c r="L67" s="25">
         <v>4</v>
       </c>
-      <c r="M67" s="30">
+      <c r="M67" s="27">
         <v>5</v>
       </c>
     </row>
@@ -2590,7 +2590,7 @@
       <c r="H69" s="13">
         <v>3</v>
       </c>
-      <c r="I69" s="33">
+      <c r="I69" s="30">
         <v>2</v>
       </c>
       <c r="J69" s="13">
@@ -2640,7 +2640,7 @@
       <c r="H71" s="2">
         <v>5</v>
       </c>
-      <c r="I71" s="32">
+      <c r="I71" s="29">
         <v>5</v>
       </c>
       <c r="J71" s="2">
